--- a/src/conf/xlsx/column-and-parameter-descriptions-R4.xlsx
+++ b/src/conf/xlsx/column-and-parameter-descriptions-R4.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\lhc-lx-sedinkinya\sedinkinya\Projects\fhir-obs-viewer\src\conf\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\lhc-lx-ftdev04\sedinkinya\Projects\fhir-obs-viewer\src\conf\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC7BDE9-566B-4676-82A3-86FE6A026DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0480D29A-7E94-470C-9485-C8C452895CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8205" yWindow="2430" windowWidth="38700" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resources on LForms R4 server" sheetId="1" r:id="rId1"/>
     <sheet name="Resources on dbGap server" sheetId="2" r:id="rId2"/>
     <sheet name="Default R4 resources" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9929" uniqueCount="1604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9946" uniqueCount="1608">
   <si>
     <t>Legend</t>
   </si>
@@ -4834,6 +4834,18 @@
   </si>
   <si>
     <t>default_R4</t>
+  </si>
+  <si>
+    <t>publisher</t>
+  </si>
+  <si>
+    <t>Name of the publisher (organization or individual)</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>The current status of the evidence variable: draft | active | retired | unknown</t>
   </si>
 </sst>
 </file>
@@ -4925,9 +4937,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4965,7 +4977,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -5071,7 +5083,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5213,7 +5225,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13224,10 +13236,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H170"/>
+  <dimension ref="A1:H173"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13317,13 +13329,13 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>288</v>
+        <v>77</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>289</v>
+        <v>78</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>20</v>
@@ -13332,428 +13344,430 @@
         <v>33</v>
       </c>
       <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>288</v>
       </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
         <v>288</v>
       </c>
-      <c r="E14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
         <v>33</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H15" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="3" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>1606</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>148</v>
-      </c>
-      <c r="C16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" t="s">
-        <v>148</v>
-      </c>
-      <c r="E16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>745</v>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3" t="s">
+        <v>1605</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="H18" s="3" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3" t="s">
-        <v>746</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>747</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="3" t="s">
+      <c r="B19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>148</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3" t="s">
-        <v>748</v>
+      <c r="H19" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3" t="s">
-        <v>749</v>
+      <c r="A20" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G21" s="3"/>
-      <c r="H21" s="3" t="s">
-        <v>750</v>
-      </c>
+      <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>598</v>
+        <v>746</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>599</v>
+        <v>747</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4" t="s">
         <v>752</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="4" t="s">
+      <c r="C26" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>753</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="4" t="s">
+      <c r="E26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4" t="s">
+      <c r="G26" s="4"/>
+      <c r="H26" s="4" t="s">
         <v>754</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>756</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" t="s">
-        <v>47</v>
-      </c>
-      <c r="H25" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3" t="s">
-        <v>758</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
-        <v>680</v>
+        <v>755</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>681</v>
+        <v>756</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>760</v>
+        <v>72</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
         <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="E28" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>762</v>
+        <v>750</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>148</v>
+        <v>758</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>763</v>
+      <c r="F29" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3" t="s">
-        <v>765</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>766</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3" t="s">
-        <v>767</v>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>598</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
         <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>598</v>
+        <v>29</v>
       </c>
       <c r="E31" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F31" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H31" t="s">
-        <v>751</v>
+        <v>762</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" t="s">
-        <v>79</v>
-      </c>
-      <c r="E32" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" t="s">
-        <v>80</v>
-      </c>
-      <c r="H32" t="s">
-        <v>768</v>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>79</v>
+        <v>765</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>80</v>
+        <v>766</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>769</v>
+        <v>598</v>
       </c>
       <c r="C34" t="s">
         <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>769</v>
+        <v>598</v>
       </c>
       <c r="E34" t="s">
         <v>20</v>
@@ -13762,177 +13776,167 @@
         <v>47</v>
       </c>
       <c r="H34" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" t="s">
+        <v>80</v>
+      </c>
+      <c r="H35" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>769</v>
+      </c>
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" t="s">
+        <v>769</v>
+      </c>
+      <c r="E37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" t="s">
+        <v>47</v>
+      </c>
+      <c r="H37" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" s="3" t="s">
+      <c r="C38" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F35" s="3" t="s">
+      <c r="E38" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3" t="s">
+      <c r="G38" s="3"/>
+      <c r="H38" s="3" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>165</v>
       </c>
-      <c r="C36" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="C39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" t="s">
         <v>165</v>
       </c>
-      <c r="E36" t="s">
-        <v>24</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="E39" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" t="s">
         <v>47</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H39" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" s="4" t="s">
+      <c r="C40" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E40" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F40" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4" t="s">
+      <c r="G40" s="4"/>
+      <c r="H40" s="4" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D38" s="4" t="s">
+      <c r="C41" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F38" s="5" t="s">
+      <c r="E41" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4" t="s">
+      <c r="G41" s="4"/>
+      <c r="H41" s="4" t="s">
         <v>773</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2" t="s">
-        <v>774</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>775</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>776</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>777</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>780</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>776</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>781</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2" t="s">
-        <v>783</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>784</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>776</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>785</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
-        <v>787</v>
+        <v>774</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>788</v>
+        <v>775</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>20</v>
@@ -13941,22 +13945,22 @@
         <v>776</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>789</v>
+        <v>777</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>790</v>
+        <v>778</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
-        <v>791</v>
+        <v>779</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>20</v>
@@ -13965,22 +13969,22 @@
         <v>776</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>793</v>
+        <v>781</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>794</v>
+        <v>782</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2" t="s">
-        <v>795</v>
+        <v>783</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>796</v>
+        <v>784</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>20</v>
@@ -13989,22 +13993,22 @@
         <v>776</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>797</v>
+        <v>785</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>798</v>
+        <v>786</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2" t="s">
-        <v>799</v>
+        <v>787</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>800</v>
+        <v>788</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>20</v>
@@ -14013,22 +14017,22 @@
         <v>776</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>801</v>
+        <v>789</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>802</v>
+        <v>790</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2" t="s">
-        <v>803</v>
+        <v>791</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>804</v>
+        <v>792</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>20</v>
@@ -14037,215 +14041,223 @@
         <v>776</v>
       </c>
       <c r="G46" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>805</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="H49" s="2" t="s">
         <v>806</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>808</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>810</v>
-      </c>
-      <c r="C48" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48" t="s">
-        <v>810</v>
-      </c>
-      <c r="E48" t="s">
-        <v>24</v>
-      </c>
-      <c r="F48" t="s">
-        <v>41</v>
-      </c>
-      <c r="H48" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
-        <v>171</v>
+        <v>807</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>254</v>
+        <v>808</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>254</v>
+        <v>24</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4" t="s">
-        <v>762</v>
+        <v>809</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4" t="s">
-        <v>812</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>813</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4" t="s">
-        <v>814</v>
+      <c r="B51" t="s">
+        <v>810</v>
+      </c>
+      <c r="C51" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" t="s">
+        <v>810</v>
+      </c>
+      <c r="E51" t="s">
+        <v>24</v>
+      </c>
+      <c r="F51" t="s">
+        <v>41</v>
+      </c>
+      <c r="H51" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
-        <v>815</v>
+        <v>244</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>816</v>
+        <v>245</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>818</v>
-      </c>
-      <c r="C53" t="s">
-        <v>18</v>
-      </c>
-      <c r="D53" t="s">
-        <v>818</v>
-      </c>
-      <c r="E53" t="s">
-        <v>24</v>
-      </c>
-      <c r="F53" t="s">
-        <v>41</v>
-      </c>
-      <c r="H53" t="s">
-        <v>819</v>
+      <c r="A53" s="4"/>
+      <c r="B53" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="C56" t="s">
         <v>18</v>
       </c>
       <c r="D56" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="E56" t="s">
         <v>24</v>
@@ -14254,419 +14266,423 @@
         <v>41</v>
       </c>
       <c r="H56" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="4" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F58" s="5" t="s">
-        <v>830</v>
+      <c r="F58" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="4" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>822</v>
+      </c>
+      <c r="C59" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" t="s">
+        <v>822</v>
+      </c>
+      <c r="E59" t="s">
+        <v>24</v>
+      </c>
+      <c r="F59" t="s">
+        <v>41</v>
+      </c>
+      <c r="H59" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4" t="s">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4" t="s">
         <v>832</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D59" s="4" t="s">
+      <c r="C62" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D62" s="4" t="s">
         <v>833</v>
       </c>
-      <c r="E59" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F59" s="4" t="s">
+      <c r="E62" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F62" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4" t="s">
+      <c r="G62" s="4"/>
+      <c r="H62" s="4" t="s">
         <v>834</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>832</v>
-      </c>
-      <c r="C60" t="s">
-        <v>18</v>
-      </c>
-      <c r="D60" t="s">
-        <v>832</v>
-      </c>
-      <c r="E60" t="s">
-        <v>24</v>
-      </c>
-      <c r="F60" t="s">
-        <v>41</v>
-      </c>
-      <c r="H60" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>752</v>
-      </c>
-      <c r="C61" t="s">
-        <v>18</v>
-      </c>
-      <c r="D61" t="s">
-        <v>752</v>
-      </c>
-      <c r="E61" t="s">
-        <v>24</v>
-      </c>
-      <c r="F61" t="s">
-        <v>41</v>
-      </c>
-      <c r="H61" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>192</v>
-      </c>
-      <c r="C62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D62" t="s">
-        <v>192</v>
-      </c>
-      <c r="E62" t="s">
-        <v>20</v>
-      </c>
-      <c r="F62" t="s">
-        <v>62</v>
-      </c>
-      <c r="H62" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
+        <v>832</v>
+      </c>
+      <c r="C63" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" t="s">
+        <v>832</v>
+      </c>
+      <c r="E63" t="s">
+        <v>24</v>
+      </c>
+      <c r="F63" t="s">
+        <v>41</v>
+      </c>
+      <c r="H63" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>752</v>
+      </c>
+      <c r="C64" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" t="s">
+        <v>752</v>
+      </c>
+      <c r="E64" t="s">
+        <v>24</v>
+      </c>
+      <c r="F64" t="s">
+        <v>41</v>
+      </c>
+      <c r="H64" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>192</v>
+      </c>
+      <c r="C65" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" t="s">
+        <v>192</v>
+      </c>
+      <c r="E65" t="s">
+        <v>20</v>
+      </c>
+      <c r="F65" t="s">
+        <v>62</v>
+      </c>
+      <c r="H65" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
         <v>746</v>
       </c>
-      <c r="C63" t="s">
-        <v>18</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="C66" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" t="s">
         <v>746</v>
       </c>
-      <c r="E63" t="s">
-        <v>20</v>
-      </c>
-      <c r="F63" t="s">
+      <c r="E66" t="s">
+        <v>20</v>
+      </c>
+      <c r="F66" t="s">
         <v>33</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H66" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2" t="s">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D65" s="2" t="s">
+      <c r="C68" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2" t="s">
+      <c r="E68" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2" t="s">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D66" s="2" t="s">
+      <c r="C69" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2" t="s">
+      <c r="E69" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
         <v>204</v>
       </c>
-      <c r="C67" t="s">
-        <v>18</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="C70" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" t="s">
         <v>205</v>
       </c>
-      <c r="E67" t="s">
-        <v>24</v>
-      </c>
-      <c r="F67" t="s">
+      <c r="E70" t="s">
+        <v>24</v>
+      </c>
+      <c r="F70" t="s">
         <v>41</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H70" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4" t="s">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D68" s="4" t="s">
+      <c r="C71" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D71" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="E68" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F68" s="4" t="s">
+      <c r="E71" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F71" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4" t="s">
+      <c r="G71" s="4"/>
+      <c r="H71" s="4" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4" t="s">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D69" s="4" t="s">
+      <c r="C72" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E69" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F69" s="4" t="s">
+      <c r="E72" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F72" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4" t="s">
+      <c r="G72" s="4"/>
+      <c r="H72" s="4" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4" t="s">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D70" s="4" t="s">
+      <c r="C73" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D73" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="E73" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="F73" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4" t="s">
+      <c r="G73" s="4"/>
+      <c r="H73" s="4" t="s">
         <v>521</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>52</v>
-      </c>
-      <c r="C71" t="s">
-        <v>18</v>
-      </c>
-      <c r="D71" t="s">
-        <v>52</v>
-      </c>
-      <c r="E71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F71" t="s">
-        <v>47</v>
-      </c>
-      <c r="H71" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3" t="s">
-        <v>1602</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>1601</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>62</v>
-      </c>
-      <c r="C73" t="s">
-        <v>18</v>
-      </c>
-      <c r="D73" t="s">
-        <v>62</v>
-      </c>
-      <c r="E73" t="s">
-        <v>24</v>
-      </c>
-      <c r="F73" t="s">
-        <v>47</v>
-      </c>
-      <c r="H73" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>525</v>
+        <v>52</v>
       </c>
       <c r="C74" t="s">
         <v>18</v>
       </c>
       <c r="D74" t="s">
-        <v>526</v>
+        <v>52</v>
       </c>
       <c r="E74" t="s">
         <v>24</v>
       </c>
       <c r="F74" t="s">
-        <v>183</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>528</v>
-      </c>
-      <c r="C75" t="s">
-        <v>18</v>
-      </c>
-      <c r="D75" t="s">
-        <v>529</v>
-      </c>
-      <c r="E75" t="s">
-        <v>24</v>
-      </c>
-      <c r="F75" t="s">
-        <v>183</v>
-      </c>
-      <c r="H75" t="s">
-        <v>530</v>
+      <c r="A75" s="3"/>
+      <c r="B75" s="3" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>531</v>
+        <v>62</v>
       </c>
       <c r="C76" t="s">
         <v>18</v>
       </c>
       <c r="D76" t="s">
-        <v>532</v>
+        <v>62</v>
       </c>
       <c r="E76" t="s">
         <v>24</v>
       </c>
       <c r="F76" t="s">
-        <v>183</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="C77" t="s">
         <v>18</v>
       </c>
       <c r="D77" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="E77" t="s">
         <v>24</v>
@@ -14675,38 +14691,38 @@
         <v>183</v>
       </c>
       <c r="H77" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="C78" t="s">
         <v>18</v>
       </c>
       <c r="D78" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="E78" t="s">
         <v>24</v>
       </c>
       <c r="F78" t="s">
-        <v>47</v>
+        <v>183</v>
       </c>
       <c r="H78" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="C79" t="s">
         <v>18</v>
       </c>
       <c r="D79" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="E79" t="s">
         <v>24</v>
@@ -14715,18 +14731,18 @@
         <v>183</v>
       </c>
       <c r="H79" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="C80" t="s">
         <v>18</v>
       </c>
       <c r="D80" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="E80" t="s">
         <v>24</v>
@@ -14735,18 +14751,18 @@
         <v>183</v>
       </c>
       <c r="H80" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="C81" t="s">
         <v>18</v>
       </c>
       <c r="D81" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="E81" t="s">
         <v>24</v>
@@ -14755,80 +14771,78 @@
         <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="C82" t="s">
         <v>18</v>
       </c>
       <c r="D82" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="E82" t="s">
         <v>24</v>
       </c>
       <c r="F82" t="s">
-        <v>47</v>
+        <v>183</v>
       </c>
       <c r="H82" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="C83" t="s">
         <v>18</v>
       </c>
       <c r="D83" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="E83" t="s">
         <v>24</v>
       </c>
       <c r="F83" t="s">
-        <v>304</v>
+        <v>183</v>
       </c>
       <c r="H83" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4" t="s">
-        <v>555</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>556</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4" t="s">
-        <v>557</v>
+      <c r="B84" t="s">
+        <v>546</v>
+      </c>
+      <c r="C84" t="s">
+        <v>18</v>
+      </c>
+      <c r="D84" t="s">
+        <v>547</v>
+      </c>
+      <c r="E84" t="s">
+        <v>24</v>
+      </c>
+      <c r="F84" t="s">
+        <v>47</v>
+      </c>
+      <c r="H84" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="C85" t="s">
         <v>18</v>
       </c>
       <c r="D85" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="E85" t="s">
         <v>24</v>
@@ -14837,58 +14851,60 @@
         <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="C86" t="s">
         <v>18</v>
       </c>
       <c r="D86" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="E86" t="s">
         <v>24</v>
       </c>
       <c r="F86" t="s">
-        <v>183</v>
+        <v>304</v>
       </c>
       <c r="H86" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
-        <v>564</v>
-      </c>
-      <c r="C87" t="s">
-        <v>18</v>
-      </c>
-      <c r="D87" t="s">
-        <v>565</v>
-      </c>
-      <c r="E87" t="s">
-        <v>24</v>
-      </c>
-      <c r="F87" t="s">
-        <v>183</v>
-      </c>
-      <c r="H87" t="s">
-        <v>566</v>
+      <c r="A87" s="4"/>
+      <c r="B87" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="C88" t="s">
         <v>18</v>
       </c>
       <c r="D88" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="E88" t="s">
         <v>24</v>
@@ -14897,58 +14913,58 @@
         <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="C89" t="s">
         <v>18</v>
       </c>
       <c r="D89" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="E89" t="s">
         <v>24</v>
       </c>
       <c r="F89" t="s">
-        <v>47</v>
+        <v>183</v>
       </c>
       <c r="H89" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="C90" t="s">
         <v>18</v>
       </c>
       <c r="D90" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="E90" t="s">
         <v>24</v>
       </c>
       <c r="F90" t="s">
-        <v>304</v>
+        <v>183</v>
       </c>
       <c r="H90" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="C91" t="s">
         <v>18</v>
       </c>
       <c r="D91" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="E91" t="s">
         <v>24</v>
@@ -14957,250 +14973,248 @@
         <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="4"/>
-      <c r="B92" s="4" t="s">
-        <v>579</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F92" s="4" t="s">
+      <c r="B92" t="s">
+        <v>570</v>
+      </c>
+      <c r="C92" t="s">
+        <v>18</v>
+      </c>
+      <c r="D92" t="s">
+        <v>571</v>
+      </c>
+      <c r="E92" t="s">
+        <v>24</v>
+      </c>
+      <c r="F92" t="s">
         <v>47</v>
       </c>
-      <c r="G92" s="4"/>
-      <c r="H92" s="4" t="s">
-        <v>581</v>
+      <c r="H92" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>29</v>
+        <v>573</v>
       </c>
       <c r="C93" t="s">
         <v>18</v>
       </c>
       <c r="D93" t="s">
-        <v>29</v>
+        <v>574</v>
       </c>
       <c r="E93" t="s">
         <v>24</v>
       </c>
       <c r="F93" t="s">
-        <v>29</v>
+        <v>304</v>
       </c>
       <c r="H93" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="C94" t="s">
         <v>18</v>
       </c>
       <c r="D94" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="E94" t="s">
         <v>24</v>
       </c>
       <c r="F94" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="4" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G95" s="4"/>
       <c r="H95" s="4" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>588</v>
+        <v>29</v>
       </c>
       <c r="C96" t="s">
         <v>18</v>
       </c>
       <c r="D96" t="s">
-        <v>588</v>
+        <v>29</v>
       </c>
       <c r="E96" t="s">
         <v>24</v>
       </c>
       <c r="F96" t="s">
+        <v>29</v>
+      </c>
+      <c r="H96" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>583</v>
+      </c>
+      <c r="C97" t="s">
+        <v>18</v>
+      </c>
+      <c r="D97" t="s">
+        <v>584</v>
+      </c>
+      <c r="E97" t="s">
+        <v>24</v>
+      </c>
+      <c r="F97" t="s">
         <v>41</v>
       </c>
-      <c r="H96" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="4"/>
-      <c r="B97" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>590</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F97" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G97" s="4"/>
-      <c r="H97" s="4" t="s">
-        <v>591</v>
+      <c r="H97" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="4" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>594</v>
+        <v>44</v>
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="4" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="4"/>
-      <c r="B99" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F99" s="4" t="s">
+      <c r="B99" t="s">
+        <v>588</v>
+      </c>
+      <c r="C99" t="s">
+        <v>18</v>
+      </c>
+      <c r="D99" t="s">
+        <v>588</v>
+      </c>
+      <c r="E99" t="s">
+        <v>24</v>
+      </c>
+      <c r="F99" t="s">
+        <v>41</v>
+      </c>
+      <c r="H99" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F100" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G99" s="4"/>
-      <c r="H99" s="4" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
-        <v>66</v>
-      </c>
-      <c r="C100" t="s">
-        <v>18</v>
-      </c>
-      <c r="D100" t="s">
-        <v>66</v>
-      </c>
-      <c r="E100" t="s">
-        <v>24</v>
-      </c>
-      <c r="F100" t="s">
-        <v>41</v>
-      </c>
-      <c r="H100" t="s">
-        <v>597</v>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="4" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>44</v>
+        <v>594</v>
       </c>
       <c r="G101" s="4"/>
       <c r="H101" s="4" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
-        <v>598</v>
-      </c>
-      <c r="C102" t="s">
-        <v>18</v>
-      </c>
-      <c r="D102" t="s">
-        <v>598</v>
-      </c>
-      <c r="E102" t="s">
-        <v>24</v>
-      </c>
-      <c r="F102" t="s">
-        <v>41</v>
-      </c>
-      <c r="H102" t="s">
-        <v>601</v>
+      <c r="A102" s="4"/>
+      <c r="B102" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>602</v>
+        <v>66</v>
       </c>
       <c r="C103" t="s">
         <v>18</v>
       </c>
       <c r="D103" t="s">
-        <v>603</v>
+        <v>66</v>
       </c>
       <c r="E103" t="s">
         <v>24</v>
@@ -15209,19 +15223,19 @@
         <v>41</v>
       </c>
       <c r="H103" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="4" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="E104" s="4" t="s">
         <v>24</v>
@@ -15231,315 +15245,313 @@
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="4" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G105" s="3"/>
-      <c r="H105" s="3"/>
+      <c r="B105" t="s">
+        <v>598</v>
+      </c>
+      <c r="C105" t="s">
+        <v>18</v>
+      </c>
+      <c r="D105" t="s">
+        <v>598</v>
+      </c>
+      <c r="E105" t="s">
+        <v>24</v>
+      </c>
+      <c r="F105" t="s">
+        <v>41</v>
+      </c>
+      <c r="H105" t="s">
+        <v>601</v>
+      </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>79</v>
+        <v>602</v>
       </c>
       <c r="C106" t="s">
         <v>18</v>
       </c>
       <c r="D106" t="s">
-        <v>79</v>
+        <v>603</v>
       </c>
       <c r="E106" t="s">
         <v>24</v>
       </c>
       <c r="F106" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="H106" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="4" t="s">
-        <v>79</v>
+        <v>605</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>80</v>
+        <v>606</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="G107" s="4"/>
       <c r="H107" s="4" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G108" s="3"/>
+      <c r="H108" s="3"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>79</v>
+      </c>
+      <c r="C109" t="s">
+        <v>18</v>
+      </c>
+      <c r="D109" t="s">
+        <v>79</v>
+      </c>
+      <c r="E109" t="s">
+        <v>24</v>
+      </c>
+      <c r="F109" t="s">
+        <v>80</v>
+      </c>
+      <c r="H109" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="4"/>
+      <c r="B110" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="3"/>
+      <c r="B111" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="C108" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D108" s="3" t="s">
+      <c r="C111" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D111" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="E108" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F108" s="3" t="s">
+      <c r="E111" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F111" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G108" s="3"/>
-      <c r="H108" s="3" t="s">
+      <c r="G111" s="3"/>
+      <c r="H111" s="3" t="s">
         <v>611</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="4"/>
-      <c r="B109" s="4" t="s">
-        <v>612</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F109" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="G109" s="4"/>
-      <c r="H109" s="4" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
-        <v>615</v>
-      </c>
-      <c r="C110" t="s">
-        <v>18</v>
-      </c>
-      <c r="D110" t="s">
-        <v>615</v>
-      </c>
-      <c r="E110" t="s">
-        <v>24</v>
-      </c>
-      <c r="F110" t="s">
-        <v>47</v>
-      </c>
-      <c r="H110" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="4"/>
-      <c r="B111" s="4" t="s">
-        <v>615</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>617</v>
-      </c>
-      <c r="E111" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F111" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G111" s="4"/>
-      <c r="H111" s="4" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="4" t="s">
-        <v>83</v>
+        <v>612</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>84</v>
+        <v>613</v>
       </c>
       <c r="E112" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F112" s="5" t="s">
-        <v>85</v>
+      <c r="F112" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="G112" s="4"/>
       <c r="H112" s="4" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>241</v>
+        <v>615</v>
       </c>
       <c r="C113" t="s">
         <v>18</v>
       </c>
       <c r="D113" t="s">
-        <v>242</v>
+        <v>615</v>
       </c>
       <c r="E113" t="s">
         <v>24</v>
       </c>
       <c r="F113" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H113" t="s">
-        <v>490</v>
+        <v>616</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="4" t="s">
-        <v>244</v>
+        <v>615</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>245</v>
+        <v>617</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G114" s="4"/>
       <c r="H114" s="4" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="4"/>
+      <c r="B115" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>241</v>
+      </c>
+      <c r="C116" t="s">
+        <v>18</v>
+      </c>
+      <c r="D116" t="s">
+        <v>242</v>
+      </c>
+      <c r="E116" t="s">
+        <v>24</v>
+      </c>
+      <c r="F116" t="s">
+        <v>41</v>
+      </c>
+      <c r="H116" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="4"/>
+      <c r="B117" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G117" s="4"/>
+      <c r="H117" s="4" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
         <v>99</v>
       </c>
-      <c r="C115" t="s">
-        <v>18</v>
-      </c>
-      <c r="D115" t="s">
+      <c r="C118" t="s">
+        <v>18</v>
+      </c>
+      <c r="D118" t="s">
         <v>99</v>
       </c>
-      <c r="E115" t="s">
-        <v>24</v>
-      </c>
-      <c r="F115" t="s">
+      <c r="E118" t="s">
+        <v>24</v>
+      </c>
+      <c r="F118" t="s">
         <v>100</v>
       </c>
-      <c r="H115" t="s">
+      <c r="H118" t="s">
         <v>620</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="4"/>
-      <c r="B116" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="E116" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F116" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G116" s="4"/>
-      <c r="H116" s="4" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B117" t="s">
-        <v>332</v>
-      </c>
-      <c r="C117" t="s">
-        <v>18</v>
-      </c>
-      <c r="D117" t="s">
-        <v>332</v>
-      </c>
-      <c r="E117" t="s">
-        <v>24</v>
-      </c>
-      <c r="F117" t="s">
-        <v>41</v>
-      </c>
-      <c r="H117" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="3"/>
-      <c r="B118" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F118" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G118" s="3"/>
-      <c r="H118" s="3" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="4" t="s">
-        <v>626</v>
+        <v>332</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>627</v>
+        <v>333</v>
       </c>
       <c r="E119" s="4" t="s">
         <v>24</v>
@@ -15549,18 +15561,18 @@
       </c>
       <c r="G119" s="4"/>
       <c r="H119" s="4" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>626</v>
+        <v>332</v>
       </c>
       <c r="C120" t="s">
         <v>18</v>
       </c>
       <c r="D120" t="s">
-        <v>626</v>
+        <v>332</v>
       </c>
       <c r="E120" t="s">
         <v>24</v>
@@ -15569,313 +15581,315 @@
         <v>41</v>
       </c>
       <c r="H120" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="3"/>
+      <c r="B121" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G121" s="3"/>
+      <c r="H121" s="3" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="4"/>
+      <c r="B122" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G122" s="4"/>
+      <c r="H122" s="4" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="4"/>
-      <c r="B121" s="4" t="s">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>626</v>
+      </c>
+      <c r="C123" t="s">
+        <v>18</v>
+      </c>
+      <c r="D123" t="s">
+        <v>626</v>
+      </c>
+      <c r="E123" t="s">
+        <v>24</v>
+      </c>
+      <c r="F123" t="s">
+        <v>41</v>
+      </c>
+      <c r="H123" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="4"/>
+      <c r="B124" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C121" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D121" s="4" t="s">
+      <c r="C124" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D124" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="E121" s="4" t="s">
+      <c r="E124" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F121" s="4" t="s">
+      <c r="F124" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G121" s="4"/>
-      <c r="H121" s="4" t="s">
+      <c r="G124" s="4"/>
+      <c r="H124" s="4" t="s">
         <v>629</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B122" t="s">
-        <v>192</v>
-      </c>
-      <c r="C122" t="s">
-        <v>18</v>
-      </c>
-      <c r="D122" t="s">
-        <v>192</v>
-      </c>
-      <c r="E122" t="s">
-        <v>24</v>
-      </c>
-      <c r="F122" t="s">
-        <v>62</v>
-      </c>
-      <c r="H122" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="3"/>
-      <c r="B123" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F123" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G123" s="3"/>
-      <c r="H123" s="3" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B124" t="s">
-        <v>119</v>
-      </c>
-      <c r="C124" t="s">
-        <v>18</v>
-      </c>
-      <c r="D124" t="s">
-        <v>119</v>
-      </c>
-      <c r="E124" t="s">
-        <v>24</v>
-      </c>
-      <c r="F124" t="s">
-        <v>41</v>
-      </c>
-      <c r="H124" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>633</v>
+        <v>192</v>
       </c>
       <c r="C125" t="s">
         <v>18</v>
       </c>
       <c r="D125" t="s">
-        <v>634</v>
+        <v>192</v>
       </c>
       <c r="E125" t="s">
         <v>24</v>
       </c>
       <c r="F125" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="H125" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B126" t="s">
-        <v>636</v>
-      </c>
-      <c r="C126" t="s">
-        <v>18</v>
-      </c>
-      <c r="D126" t="s">
-        <v>637</v>
-      </c>
-      <c r="E126" t="s">
-        <v>24</v>
-      </c>
-      <c r="F126" t="s">
-        <v>107</v>
-      </c>
-      <c r="H126" t="s">
-        <v>638</v>
+      <c r="A126" s="3"/>
+      <c r="B126" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G126" s="3"/>
+      <c r="H126" s="3" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>639</v>
+        <v>119</v>
       </c>
       <c r="C127" t="s">
         <v>18</v>
       </c>
       <c r="D127" t="s">
-        <v>640</v>
+        <v>119</v>
       </c>
       <c r="E127" t="s">
         <v>24</v>
       </c>
       <c r="F127" t="s">
-        <v>304</v>
+        <v>41</v>
       </c>
       <c r="H127" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="C128" t="s">
         <v>18</v>
       </c>
       <c r="D128" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="E128" t="s">
         <v>24</v>
       </c>
       <c r="F128" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H128" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="3"/>
-      <c r="B129" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F129" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="G129" s="3"/>
-      <c r="H129" s="3" t="s">
-        <v>648</v>
+      <c r="B129" t="s">
+        <v>636</v>
+      </c>
+      <c r="C129" t="s">
+        <v>18</v>
+      </c>
+      <c r="D129" t="s">
+        <v>637</v>
+      </c>
+      <c r="E129" t="s">
+        <v>24</v>
+      </c>
+      <c r="F129" t="s">
+        <v>107</v>
+      </c>
+      <c r="H129" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>100</v>
+      <c r="B130" t="s">
+        <v>639</v>
+      </c>
+      <c r="C130" t="s">
+        <v>18</v>
+      </c>
+      <c r="D130" t="s">
+        <v>640</v>
+      </c>
+      <c r="E130" t="s">
+        <v>24</v>
+      </c>
+      <c r="F130" t="s">
+        <v>304</v>
+      </c>
+      <c r="H130" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
+        <v>642</v>
+      </c>
+      <c r="C131" t="s">
+        <v>18</v>
+      </c>
+      <c r="D131" t="s">
+        <v>643</v>
+      </c>
+      <c r="E131" t="s">
+        <v>24</v>
+      </c>
+      <c r="F131" t="s">
+        <v>33</v>
+      </c>
+      <c r="H131" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="3"/>
+      <c r="B132" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="G132" s="3"/>
+      <c r="H132" s="3" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
         <v>649</v>
       </c>
-      <c r="C131" t="s">
-        <v>18</v>
-      </c>
-      <c r="D131" t="s">
+      <c r="C134" t="s">
+        <v>18</v>
+      </c>
+      <c r="D134" t="s">
         <v>649</v>
       </c>
-      <c r="E131" t="s">
-        <v>24</v>
-      </c>
-      <c r="F131" t="s">
+      <c r="E134" t="s">
+        <v>24</v>
+      </c>
+      <c r="F134" t="s">
         <v>391</v>
       </c>
-      <c r="H131" t="s">
+      <c r="H134" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="4"/>
-      <c r="B132" s="4" t="s">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="4"/>
+      <c r="B135" s="4" t="s">
         <v>649</v>
       </c>
-      <c r="C132" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D132" s="4" t="s">
+      <c r="C135" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D135" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="E132" s="4" t="s">
+      <c r="E135" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F132" s="4" t="s">
+      <c r="F135" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="G132" s="4"/>
-      <c r="H132" s="4" t="s">
+      <c r="G135" s="4"/>
+      <c r="H135" s="4" t="s">
         <v>652</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B133" t="s">
-        <v>653</v>
-      </c>
-      <c r="C133" t="s">
-        <v>18</v>
-      </c>
-      <c r="D133" t="s">
-        <v>653</v>
-      </c>
-      <c r="E133" t="s">
-        <v>24</v>
-      </c>
-      <c r="F133" t="s">
-        <v>33</v>
-      </c>
-      <c r="H133" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="4"/>
-      <c r="B134" s="4" t="s">
-        <v>653</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>655</v>
-      </c>
-      <c r="E134" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F134" s="4" t="s">
-        <v>655</v>
-      </c>
-      <c r="G134" s="4"/>
-      <c r="H134" s="4" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B135" t="s">
-        <v>657</v>
-      </c>
-      <c r="C135" t="s">
-        <v>18</v>
-      </c>
-      <c r="D135" t="s">
-        <v>658</v>
-      </c>
-      <c r="E135" t="s">
-        <v>24</v>
-      </c>
-      <c r="F135" t="s">
-        <v>33</v>
-      </c>
-      <c r="H135" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="C136" t="s">
         <v>18</v>
       </c>
       <c r="D136" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="E136" t="s">
         <v>24</v>
@@ -15884,38 +15898,40 @@
         <v>33</v>
       </c>
       <c r="H136" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B137" t="s">
-        <v>663</v>
-      </c>
-      <c r="C137" t="s">
-        <v>18</v>
-      </c>
-      <c r="D137" t="s">
-        <v>664</v>
-      </c>
-      <c r="E137" t="s">
-        <v>24</v>
-      </c>
-      <c r="F137" t="s">
-        <v>33</v>
-      </c>
-      <c r="H137" t="s">
-        <v>665</v>
+      <c r="A137" s="4"/>
+      <c r="B137" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="G137" s="4"/>
+      <c r="H137" s="4" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="C138" t="s">
         <v>18</v>
       </c>
       <c r="D138" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="E138" t="s">
         <v>24</v>
@@ -15924,602 +15940,602 @@
         <v>33</v>
       </c>
       <c r="H138" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="C139" t="s">
         <v>18</v>
       </c>
       <c r="D139" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="E139" t="s">
         <v>24</v>
       </c>
       <c r="F139" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="H139" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
+        <v>663</v>
+      </c>
+      <c r="C140" t="s">
+        <v>18</v>
+      </c>
+      <c r="D140" t="s">
+        <v>664</v>
+      </c>
+      <c r="E140" t="s">
+        <v>24</v>
+      </c>
+      <c r="F140" t="s">
+        <v>33</v>
+      </c>
+      <c r="H140" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>666</v>
+      </c>
+      <c r="C141" t="s">
+        <v>18</v>
+      </c>
+      <c r="D141" t="s">
+        <v>667</v>
+      </c>
+      <c r="E141" t="s">
+        <v>24</v>
+      </c>
+      <c r="F141" t="s">
+        <v>33</v>
+      </c>
+      <c r="H141" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>669</v>
+      </c>
+      <c r="C142" t="s">
+        <v>18</v>
+      </c>
+      <c r="D142" t="s">
+        <v>670</v>
+      </c>
+      <c r="E142" t="s">
+        <v>24</v>
+      </c>
+      <c r="F142" t="s">
+        <v>62</v>
+      </c>
+      <c r="H142" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
         <v>672</v>
       </c>
-      <c r="C140" t="s">
-        <v>18</v>
-      </c>
-      <c r="D140" t="s">
+      <c r="C143" t="s">
+        <v>18</v>
+      </c>
+      <c r="D143" t="s">
         <v>672</v>
       </c>
-      <c r="E140" t="s">
-        <v>24</v>
-      </c>
-      <c r="F140" t="s">
+      <c r="E143" t="s">
+        <v>24</v>
+      </c>
+      <c r="F143" t="s">
         <v>29</v>
       </c>
-      <c r="H140" t="s">
+      <c r="H143" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="4"/>
-      <c r="B141" s="4" t="s">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="4"/>
+      <c r="B144" s="4" t="s">
         <v>674</v>
       </c>
-      <c r="C141" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D141" s="4" t="s">
+      <c r="C144" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D144" s="4" t="s">
         <v>675</v>
       </c>
-      <c r="E141" s="4" t="s">
+      <c r="E144" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F141" s="4" t="s">
+      <c r="F144" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G141" s="4"/>
-      <c r="H141" s="4" t="s">
+      <c r="G144" s="4"/>
+      <c r="H144" s="4" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="4"/>
-      <c r="B142" s="4" t="s">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="4"/>
+      <c r="B145" s="4" t="s">
         <v>677</v>
       </c>
-      <c r="C142" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D142" s="4" t="s">
+      <c r="C145" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D145" s="4" t="s">
         <v>678</v>
       </c>
-      <c r="E142" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F142" s="5" t="s">
+      <c r="E145" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F145" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G142" s="4"/>
-      <c r="H142" s="4" t="s">
+      <c r="G145" s="4"/>
+      <c r="H145" s="4" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="4"/>
-      <c r="B143" s="4" t="s">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="4"/>
+      <c r="B146" s="4" t="s">
         <v>680</v>
       </c>
-      <c r="C143" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D143" s="4" t="s">
+      <c r="C146" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D146" s="4" t="s">
         <v>681</v>
       </c>
-      <c r="E143" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F143" s="5" t="s">
+      <c r="E146" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F146" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G143" s="4"/>
-      <c r="H143" s="4" t="s">
+      <c r="G146" s="4"/>
+      <c r="H146" s="4" t="s">
         <v>682</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B144" t="s">
-        <v>683</v>
-      </c>
-      <c r="C144" t="s">
-        <v>18</v>
-      </c>
-      <c r="D144" t="s">
-        <v>684</v>
-      </c>
-      <c r="E144" t="s">
-        <v>24</v>
-      </c>
-      <c r="F144" t="s">
-        <v>107</v>
-      </c>
-      <c r="H144" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B145" t="s">
-        <v>686</v>
-      </c>
-      <c r="C145" t="s">
-        <v>18</v>
-      </c>
-      <c r="D145" t="s">
-        <v>686</v>
-      </c>
-      <c r="E145" t="s">
-        <v>24</v>
-      </c>
-      <c r="F145" t="s">
-        <v>391</v>
-      </c>
-      <c r="H145" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="3"/>
-      <c r="B146" s="3" t="s">
-        <v>688</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>689</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F146" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="G146" s="3"/>
-      <c r="H146" s="3" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="C147" t="s">
         <v>18</v>
       </c>
       <c r="D147" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="E147" t="s">
         <v>24</v>
       </c>
       <c r="F147" t="s">
-        <v>693</v>
+        <v>107</v>
       </c>
       <c r="H147" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="C148" t="s">
         <v>18</v>
       </c>
       <c r="D148" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="E148" t="s">
         <v>24</v>
       </c>
       <c r="F148" t="s">
-        <v>33</v>
+        <v>391</v>
       </c>
       <c r="H148" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" s="3" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>62</v>
+        <v>690</v>
       </c>
       <c r="G149" s="3"/>
       <c r="H149" s="3" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="C150" t="s">
         <v>18</v>
       </c>
       <c r="D150" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="E150" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F150" t="s">
-        <v>62</v>
+        <v>693</v>
       </c>
       <c r="H150" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="C151" t="s">
         <v>18</v>
       </c>
       <c r="D151" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="E151" t="s">
         <v>24</v>
       </c>
       <c r="F151" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H151" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="4"/>
-      <c r="B152" s="4" t="s">
-        <v>704</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D152" s="4" t="s">
-        <v>705</v>
-      </c>
-      <c r="E152" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F152" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G152" s="4"/>
-      <c r="H152" s="4" t="s">
-        <v>706</v>
+      <c r="A152" s="3"/>
+      <c r="B152" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G152" s="3"/>
+      <c r="H152" s="3" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
+        <v>697</v>
+      </c>
+      <c r="C153" t="s">
+        <v>18</v>
+      </c>
+      <c r="D153" t="s">
+        <v>697</v>
+      </c>
+      <c r="E153" t="s">
+        <v>20</v>
+      </c>
+      <c r="F153" t="s">
+        <v>62</v>
+      </c>
+      <c r="H153" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
+        <v>701</v>
+      </c>
+      <c r="C154" t="s">
+        <v>18</v>
+      </c>
+      <c r="D154" t="s">
+        <v>702</v>
+      </c>
+      <c r="E154" t="s">
+        <v>24</v>
+      </c>
+      <c r="F154" t="s">
+        <v>41</v>
+      </c>
+      <c r="H154" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="4"/>
+      <c r="B155" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G155" s="4"/>
+      <c r="H155" s="4" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
         <v>707</v>
       </c>
-      <c r="C153" t="s">
-        <v>18</v>
-      </c>
-      <c r="D153" t="s">
+      <c r="C156" t="s">
+        <v>18</v>
+      </c>
+      <c r="D156" t="s">
         <v>707</v>
       </c>
-      <c r="E153" t="s">
-        <v>24</v>
-      </c>
-      <c r="F153" t="s">
+      <c r="E156" t="s">
+        <v>24</v>
+      </c>
+      <c r="F156" t="s">
         <v>33</v>
       </c>
-      <c r="H153" t="s">
+      <c r="H156" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="3"/>
-      <c r="B154" s="3" t="s">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="3"/>
+      <c r="B157" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C154" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D154" s="3" t="s">
+      <c r="C157" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D157" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E154" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F154" s="3" t="s">
+      <c r="E157" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F157" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G154" s="3"/>
-      <c r="H154" s="3"/>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B155" t="s">
-        <v>79</v>
-      </c>
-      <c r="C155" t="s">
-        <v>18</v>
-      </c>
-      <c r="D155" t="s">
-        <v>79</v>
-      </c>
-      <c r="E155" t="s">
-        <v>24</v>
-      </c>
-      <c r="F155" t="s">
-        <v>80</v>
-      </c>
-      <c r="H155" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="4"/>
-      <c r="B156" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C156" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D156" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E156" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F156" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G156" s="4"/>
-      <c r="H156" s="4" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B157" t="s">
-        <v>163</v>
-      </c>
-      <c r="C157" t="s">
-        <v>18</v>
-      </c>
-      <c r="D157" t="s">
-        <v>163</v>
-      </c>
-      <c r="E157" t="s">
-        <v>24</v>
-      </c>
-      <c r="F157" t="s">
-        <v>47</v>
-      </c>
-      <c r="H157" t="s">
-        <v>711</v>
-      </c>
+      <c r="G157" s="3"/>
+      <c r="H157" s="3"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>712</v>
+        <v>79</v>
       </c>
       <c r="C158" t="s">
         <v>18</v>
       </c>
       <c r="D158" t="s">
-        <v>712</v>
+        <v>79</v>
       </c>
       <c r="E158" t="s">
         <v>24</v>
       </c>
       <c r="F158" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="H158" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="4"/>
       <c r="B159" s="4" t="s">
-        <v>712</v>
+        <v>79</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>714</v>
+        <v>80</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F159" s="5" t="s">
-        <v>72</v>
+        <v>51</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="G159" s="4"/>
       <c r="H159" s="4" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="4"/>
-      <c r="B160" s="4" t="s">
-        <v>716</v>
-      </c>
-      <c r="C160" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D160" s="4" t="s">
-        <v>717</v>
-      </c>
-      <c r="E160" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F160" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G160" s="4"/>
-      <c r="H160" s="4" t="s">
-        <v>718</v>
+      <c r="B160" t="s">
+        <v>163</v>
+      </c>
+      <c r="C160" t="s">
+        <v>18</v>
+      </c>
+      <c r="D160" t="s">
+        <v>163</v>
+      </c>
+      <c r="E160" t="s">
+        <v>24</v>
+      </c>
+      <c r="F160" t="s">
+        <v>47</v>
+      </c>
+      <c r="H160" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="4"/>
-      <c r="B161" s="4" t="s">
-        <v>719</v>
-      </c>
-      <c r="C161" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D161" s="4" t="s">
-        <v>720</v>
-      </c>
-      <c r="E161" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F161" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G161" s="4"/>
-      <c r="H161" s="4" t="s">
-        <v>721</v>
+      <c r="B161" t="s">
+        <v>712</v>
+      </c>
+      <c r="C161" t="s">
+        <v>18</v>
+      </c>
+      <c r="D161" t="s">
+        <v>712</v>
+      </c>
+      <c r="E161" t="s">
+        <v>24</v>
+      </c>
+      <c r="F161" t="s">
+        <v>41</v>
+      </c>
+      <c r="H161" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="4"/>
       <c r="B162" s="4" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="E162" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F162" s="4" t="s">
-        <v>724</v>
+      <c r="F162" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="G162" s="4"/>
       <c r="H162" s="4" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="4"/>
       <c r="B163" s="4" t="s">
-        <v>288</v>
+        <v>716</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>289</v>
+        <v>717</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>726</v>
+        <v>44</v>
       </c>
       <c r="G163" s="4"/>
       <c r="H163" s="4" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="4"/>
+      <c r="B164" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F164" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G164" s="4"/>
+      <c r="H164" s="4" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="4"/>
+      <c r="B165" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="G165" s="4"/>
+      <c r="H165" s="4" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="4"/>
+      <c r="B166" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F166" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="G166" s="4"/>
+      <c r="H166" s="4" t="s">
         <v>727</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B164" t="s">
-        <v>288</v>
-      </c>
-      <c r="C164" t="s">
-        <v>18</v>
-      </c>
-      <c r="D164" t="s">
-        <v>288</v>
-      </c>
-      <c r="E164" t="s">
-        <v>24</v>
-      </c>
-      <c r="F164" t="s">
-        <v>33</v>
-      </c>
-      <c r="H164" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B165" t="s">
-        <v>729</v>
-      </c>
-      <c r="C165" t="s">
-        <v>18</v>
-      </c>
-      <c r="D165" t="s">
-        <v>729</v>
-      </c>
-      <c r="E165" t="s">
-        <v>24</v>
-      </c>
-      <c r="F165" t="s">
-        <v>41</v>
-      </c>
-      <c r="H165" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B166" t="s">
-        <v>731</v>
-      </c>
-      <c r="C166" t="s">
-        <v>18</v>
-      </c>
-      <c r="D166" t="s">
-        <v>731</v>
-      </c>
-      <c r="E166" t="s">
-        <v>24</v>
-      </c>
-      <c r="F166" t="s">
-        <v>693</v>
-      </c>
-      <c r="H166" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>733</v>
+        <v>288</v>
       </c>
       <c r="C167" t="s">
         <v>18</v>
       </c>
       <c r="D167" t="s">
-        <v>733</v>
+        <v>288</v>
       </c>
       <c r="E167" t="s">
         <v>24</v>
@@ -16528,75 +16544,136 @@
         <v>33</v>
       </c>
       <c r="H167" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" s="4"/>
-      <c r="B168" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="C168" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D168" s="4" t="s">
-        <v>736</v>
-      </c>
-      <c r="E168" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F168" s="5" t="s">
-        <v>737</v>
-      </c>
-      <c r="G168" s="4"/>
-      <c r="H168" s="4" t="s">
-        <v>738</v>
+      <c r="B168" t="s">
+        <v>729</v>
+      </c>
+      <c r="C168" t="s">
+        <v>18</v>
+      </c>
+      <c r="D168" t="s">
+        <v>729</v>
+      </c>
+      <c r="E168" t="s">
+        <v>24</v>
+      </c>
+      <c r="F168" t="s">
+        <v>41</v>
+      </c>
+      <c r="H168" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" s="4"/>
-      <c r="B169" s="4" t="s">
-        <v>739</v>
-      </c>
-      <c r="C169" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D169" s="4" t="s">
-        <v>740</v>
-      </c>
-      <c r="E169" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F169" s="4" t="s">
+      <c r="B169" t="s">
+        <v>731</v>
+      </c>
+      <c r="C169" t="s">
+        <v>18</v>
+      </c>
+      <c r="D169" t="s">
+        <v>731</v>
+      </c>
+      <c r="E169" t="s">
+        <v>24</v>
+      </c>
+      <c r="F169" t="s">
         <v>693</v>
       </c>
-      <c r="G169" s="4"/>
-      <c r="H169" s="4" t="s">
-        <v>741</v>
+      <c r="H169" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
+        <v>733</v>
+      </c>
+      <c r="C170" t="s">
+        <v>18</v>
+      </c>
+      <c r="D170" t="s">
+        <v>733</v>
+      </c>
+      <c r="E170" t="s">
+        <v>24</v>
+      </c>
+      <c r="F170" t="s">
+        <v>33</v>
+      </c>
+      <c r="H170" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" s="4"/>
+      <c r="B171" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F171" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="G171" s="4"/>
+      <c r="H171" s="4" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="4"/>
+      <c r="B172" s="4" t="s">
         <v>739</v>
       </c>
-      <c r="C170" t="s">
-        <v>18</v>
-      </c>
-      <c r="D170" t="s">
+      <c r="C172" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="G172" s="4"/>
+      <c r="H172" s="4" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
         <v>739</v>
       </c>
-      <c r="E170" t="s">
-        <v>24</v>
-      </c>
-      <c r="F170" t="s">
+      <c r="C173" t="s">
+        <v>18</v>
+      </c>
+      <c r="D173" t="s">
+        <v>739</v>
+      </c>
+      <c r="E173" t="s">
+        <v>24</v>
+      </c>
+      <c r="F173" t="s">
         <v>693</v>
       </c>
-      <c r="H170" t="s">
+      <c r="H173" t="s">
         <v>742</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16604,7 +16681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H1155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A337" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/src/conf/xlsx/column-and-parameter-descriptions-R4.xlsx
+++ b/src/conf/xlsx/column-and-parameter-descriptions-R4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\lhc-lx-ftdev04\sedinkinya\Projects\fhir-obs-viewer\src\conf\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8D6AEB-AD12-4DCA-A394-CEF3E08DD8F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325D1FEB-D406-4F49-A6D1-850AE0D87AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2955" yWindow="2190" windowWidth="36585" windowHeight="17160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4938,9 +4938,6 @@
     <t>Section 1 Text</t>
   </si>
   <si>
-    <t>section[0].text.`div`</t>
-  </si>
-  <si>
     <t>section[0].title</t>
   </si>
   <si>
@@ -4954,6 +4951,9 @@
   </si>
   <si>
     <t>section-1-text</t>
+  </si>
+  <si>
+    <t>section[0].text.`div`.select(iif(matches('^(&lt;\\?xml [^&gt;]*&gt;|)&lt;div( [^&gt;]*|)&gt;(.*)&lt;/div&gt;$'), replaceMatches('^(&lt;\\?xml [^&gt;]*&gt;|)&lt;div( [^&gt;]*|)&gt;(.*)&lt;/div&gt;$', '$3'), $this))</t>
   </si>
 </sst>
 </file>
@@ -5365,7 +5365,7 @@
   <dimension ref="A1:H431"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6004,7 +6004,7 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>36</v>
@@ -6019,16 +6019,16 @@
         <v>33</v>
       </c>
       <c r="G38" s="2" t="s">
+        <v>1638</v>
+      </c>
+      <c r="H38" s="2" t="s">
         <v>1639</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>1640</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>36</v>
@@ -6043,10 +6043,10 @@
         <v>33</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>1638</v>
+        <v>1643</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">

--- a/src/conf/xlsx/column-and-parameter-descriptions-R4.xlsx
+++ b/src/conf/xlsx/column-and-parameter-descriptions-R4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\lhc-lx-ftdev04\sedinkinya\Projects\fhir-obs-viewer\src\conf\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325D1FEB-D406-4F49-A6D1-850AE0D87AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA4273E-61BD-4C7C-8352-DF619034E917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2955" yWindow="2190" windowWidth="36585" windowHeight="17160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6405" yWindow="2175" windowWidth="36585" windowHeight="17160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resources on LForms R4 server" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10378" uniqueCount="1644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10392" uniqueCount="1652">
   <si>
     <t>Legend</t>
   </si>
@@ -4954,6 +4954,30 @@
   </si>
   <si>
     <t>section[0].text.`div`.select(iif(matches('^(&lt;\\?xml [^&gt;]*&gt;|)&lt;div( [^&gt;]*|)&gt;(.*)&lt;/div&gt;$'), replaceMatches('^(&lt;\\?xml [^&gt;]*&gt;|)&lt;div( [^&gt;]*|)&gt;(.*)&lt;/div&gt;$', '$3'), $this))</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>The patient's age</t>
+  </si>
+  <si>
+    <t>iif(birthDate.exists(), defineVariable('referenceDate', iif(%context.deceasedDateTime.exists(), %context.deceasedDateTime, today())).select((%referenceDate.toString().substring(0,4).toInteger() - %context.birthDate.toString().substring(0,4).toInteger()) - iif(%referenceDate.toString().substring(5,10) &lt; %context.birthDate.toString().substring(5,10),1,0)), {})</t>
+  </si>
+  <si>
+    <t>unsignedInt</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>defineVariable('homeAddress', address.where(use = 'home')).select(iif(%homeAddress.exists(), %homeAddress, address)).state.first()</t>
+  </si>
+  <si>
+    <t>State (from the first possible home address where the state is specified)</t>
   </si>
 </sst>
 </file>
@@ -5362,10 +5386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H431"/>
+  <dimension ref="A1:H433"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="A375" workbookViewId="0">
+      <selection activeCell="G396" sqref="G396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13389,34 +13413,38 @@
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B396" t="s">
-        <v>657</v>
-      </c>
-      <c r="C396" t="s">
-        <v>18</v>
-      </c>
-      <c r="D396" t="s">
-        <v>658</v>
-      </c>
-      <c r="E396" t="s">
-        <v>20</v>
-      </c>
-      <c r="F396" t="s">
+      <c r="A396" s="2"/>
+      <c r="B396" s="2" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C396" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D396" s="2" t="s">
+        <v>1649</v>
+      </c>
+      <c r="E396" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F396" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H396" t="s">
-        <v>659</v>
+      <c r="G396" s="2" t="s">
+        <v>1650</v>
+      </c>
+      <c r="H396" s="2" t="s">
+        <v>1651</v>
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B397" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C397" t="s">
         <v>18</v>
       </c>
       <c r="D397" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="E397" t="s">
         <v>20</v>
@@ -13425,18 +13453,18 @@
         <v>33</v>
       </c>
       <c r="H397" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B398" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C398" t="s">
         <v>18</v>
       </c>
       <c r="D398" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E398" t="s">
         <v>20</v>
@@ -13445,18 +13473,18 @@
         <v>33</v>
       </c>
       <c r="H398" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B399" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C399" t="s">
         <v>18</v>
       </c>
       <c r="D399" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="E399" t="s">
         <v>20</v>
@@ -13465,103 +13493,101 @@
         <v>33</v>
       </c>
       <c r="H399" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B400" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C400" t="s">
         <v>18</v>
       </c>
       <c r="D400" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="E400" t="s">
         <v>20</v>
       </c>
       <c r="F400" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="H400" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B401" t="s">
+        <v>669</v>
+      </c>
+      <c r="C401" t="s">
+        <v>18</v>
+      </c>
+      <c r="D401" t="s">
+        <v>670</v>
+      </c>
+      <c r="E401" t="s">
+        <v>20</v>
+      </c>
+      <c r="F401" t="s">
+        <v>62</v>
+      </c>
+      <c r="H401" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B402" t="s">
         <v>672</v>
       </c>
-      <c r="C401" t="s">
-        <v>18</v>
-      </c>
-      <c r="D401" t="s">
+      <c r="C402" t="s">
+        <v>18</v>
+      </c>
+      <c r="D402" t="s">
         <v>672</v>
       </c>
-      <c r="E401" t="s">
-        <v>20</v>
-      </c>
-      <c r="F401" t="s">
+      <c r="E402" t="s">
+        <v>20</v>
+      </c>
+      <c r="F402" t="s">
         <v>29</v>
       </c>
-      <c r="H401" t="s">
+      <c r="H402" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A402" s="3"/>
-      <c r="B402" s="3" t="s">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A403" s="3"/>
+      <c r="B403" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="C402" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D402" s="3" t="s">
+      <c r="C403" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D403" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="E402" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F402" s="3" t="s">
+      <c r="E403" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F403" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G402" s="3"/>
-      <c r="H402" s="3" t="s">
+      <c r="G403" s="3"/>
+      <c r="H403" s="3" t="s">
         <v>676</v>
-      </c>
-    </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A403" s="4"/>
-      <c r="B403" s="4" t="s">
-        <v>677</v>
-      </c>
-      <c r="C403" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D403" s="4" t="s">
-        <v>678</v>
-      </c>
-      <c r="E403" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F403" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G403" s="4"/>
-      <c r="H403" s="4" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404" s="4"/>
       <c r="B404" s="4" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C404" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D404" s="4" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="E404" s="4" t="s">
         <v>24</v>
@@ -13571,568 +13597,614 @@
       </c>
       <c r="G404" s="4"/>
       <c r="H404" s="4" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A405" s="4"/>
+      <c r="B405" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="C405" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D405" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="E405" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F405" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G405" s="4"/>
+      <c r="H405" s="4" t="s">
         <v>682</v>
-      </c>
-    </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B405" t="s">
-        <v>683</v>
-      </c>
-      <c r="C405" t="s">
-        <v>18</v>
-      </c>
-      <c r="D405" t="s">
-        <v>684</v>
-      </c>
-      <c r="E405" t="s">
-        <v>24</v>
-      </c>
-      <c r="F405" t="s">
-        <v>107</v>
-      </c>
-      <c r="H405" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B406" t="s">
+        <v>683</v>
+      </c>
+      <c r="C406" t="s">
+        <v>18</v>
+      </c>
+      <c r="D406" t="s">
+        <v>684</v>
+      </c>
+      <c r="E406" t="s">
+        <v>24</v>
+      </c>
+      <c r="F406" t="s">
+        <v>107</v>
+      </c>
+      <c r="H406" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B407" t="s">
         <v>686</v>
       </c>
-      <c r="C406" t="s">
-        <v>18</v>
-      </c>
-      <c r="D406" t="s">
+      <c r="C407" t="s">
+        <v>18</v>
+      </c>
+      <c r="D407" t="s">
         <v>686</v>
       </c>
-      <c r="E406" t="s">
-        <v>20</v>
-      </c>
-      <c r="F406" t="s">
+      <c r="E407" t="s">
+        <v>20</v>
+      </c>
+      <c r="F407" t="s">
         <v>391</v>
       </c>
-      <c r="H406" t="s">
+      <c r="H407" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A407" s="3"/>
-      <c r="B407" s="3" t="s">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A408" s="3"/>
+      <c r="B408" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="C407" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D407" s="3" t="s">
+      <c r="C408" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D408" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="E407" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F407" s="3" t="s">
+      <c r="E408" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F408" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="G407" s="3"/>
-      <c r="H407" s="3" t="s">
+      <c r="G408" s="3"/>
+      <c r="H408" s="3" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B408" t="s">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A409" s="2"/>
+      <c r="B409" s="2" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C409" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D409" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E409" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F409" s="2" t="s">
+        <v>1647</v>
+      </c>
+      <c r="G409" s="2" t="s">
+        <v>1646</v>
+      </c>
+      <c r="H409" s="2" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B410" t="s">
         <v>692</v>
       </c>
-      <c r="C408" t="s">
-        <v>18</v>
-      </c>
-      <c r="D408" t="s">
+      <c r="C410" t="s">
+        <v>18</v>
+      </c>
+      <c r="D410" t="s">
         <v>692</v>
       </c>
-      <c r="E408" t="s">
-        <v>20</v>
-      </c>
-      <c r="F408" t="s">
+      <c r="E410" t="s">
+        <v>20</v>
+      </c>
+      <c r="F410" t="s">
         <v>693</v>
       </c>
-      <c r="H408" t="s">
+      <c r="H410" t="s">
         <v>694</v>
-      </c>
-    </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B409" t="s">
-        <v>695</v>
-      </c>
-      <c r="C409" t="s">
-        <v>18</v>
-      </c>
-      <c r="D409" t="s">
-        <v>695</v>
-      </c>
-      <c r="E409" t="s">
-        <v>20</v>
-      </c>
-      <c r="F409" t="s">
-        <v>33</v>
-      </c>
-      <c r="H409" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A410" s="3"/>
-      <c r="B410" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="C410" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D410" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="E410" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F410" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G410" s="3"/>
-      <c r="H410" s="3" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B411" t="s">
+        <v>695</v>
+      </c>
+      <c r="C411" t="s">
+        <v>18</v>
+      </c>
+      <c r="D411" t="s">
+        <v>695</v>
+      </c>
+      <c r="E411" t="s">
+        <v>20</v>
+      </c>
+      <c r="F411" t="s">
+        <v>33</v>
+      </c>
+      <c r="H411" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A412" s="3"/>
+      <c r="B412" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="C411" t="s">
-        <v>18</v>
-      </c>
-      <c r="D411" t="s">
+      <c r="C412" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D412" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="E412" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F412" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G412" s="3"/>
+      <c r="H412" s="3" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B413" t="s">
         <v>697</v>
       </c>
-      <c r="E411" t="s">
-        <v>20</v>
-      </c>
-      <c r="F411" t="s">
+      <c r="C413" t="s">
+        <v>18</v>
+      </c>
+      <c r="D413" t="s">
+        <v>697</v>
+      </c>
+      <c r="E413" t="s">
+        <v>20</v>
+      </c>
+      <c r="F413" t="s">
         <v>62</v>
       </c>
-      <c r="H411" t="s">
+      <c r="H413" t="s">
         <v>700</v>
-      </c>
-    </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B412" t="s">
-        <v>701</v>
-      </c>
-      <c r="C412" t="s">
-        <v>18</v>
-      </c>
-      <c r="D412" t="s">
-        <v>702</v>
-      </c>
-      <c r="E412" t="s">
-        <v>24</v>
-      </c>
-      <c r="F412" t="s">
-        <v>41</v>
-      </c>
-      <c r="H412" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A413" s="4"/>
-      <c r="B413" s="4" t="s">
-        <v>704</v>
-      </c>
-      <c r="C413" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D413" s="4" t="s">
-        <v>705</v>
-      </c>
-      <c r="E413" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F413" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G413" s="4"/>
-      <c r="H413" s="4" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B414" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="C414" t="s">
         <v>18</v>
       </c>
       <c r="D414" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="E414" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F414" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H414" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A415" s="3"/>
-      <c r="B415" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C415" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D415" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E415" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F415" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G415" s="3"/>
-      <c r="H415" s="3"/>
+      <c r="A415" s="4"/>
+      <c r="B415" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="C415" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D415" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="E415" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F415" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G415" s="4"/>
+      <c r="H415" s="4" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B416" t="s">
-        <v>79</v>
+        <v>707</v>
       </c>
       <c r="C416" t="s">
         <v>18</v>
       </c>
       <c r="D416" t="s">
-        <v>79</v>
+        <v>707</v>
       </c>
       <c r="E416" t="s">
         <v>20</v>
       </c>
       <c r="F416" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="H416" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417" s="3"/>
       <c r="B417" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C417" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D417" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E417" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F417" s="3" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="G417" s="3"/>
-      <c r="H417" s="3" t="s">
-        <v>710</v>
-      </c>
+      <c r="H417" s="3"/>
     </row>
     <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B418" t="s">
+        <v>79</v>
+      </c>
+      <c r="C418" t="s">
+        <v>18</v>
+      </c>
+      <c r="D418" t="s">
+        <v>79</v>
+      </c>
+      <c r="E418" t="s">
+        <v>20</v>
+      </c>
+      <c r="F418" t="s">
+        <v>80</v>
+      </c>
+      <c r="H418" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A419" s="3"/>
+      <c r="B419" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C419" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D419" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E419" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F419" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G419" s="3"/>
+      <c r="H419" s="3" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B420" t="s">
         <v>163</v>
       </c>
-      <c r="C418" t="s">
-        <v>18</v>
-      </c>
-      <c r="D418" t="s">
+      <c r="C420" t="s">
+        <v>18</v>
+      </c>
+      <c r="D420" t="s">
         <v>163</v>
       </c>
-      <c r="E418" t="s">
-        <v>24</v>
-      </c>
-      <c r="F418" t="s">
+      <c r="E420" t="s">
+        <v>24</v>
+      </c>
+      <c r="F420" t="s">
         <v>47</v>
       </c>
-      <c r="H418" t="s">
+      <c r="H420" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B419" t="s">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B421" t="s">
         <v>712</v>
       </c>
-      <c r="C419" t="s">
-        <v>18</v>
-      </c>
-      <c r="D419" t="s">
+      <c r="C421" t="s">
+        <v>18</v>
+      </c>
+      <c r="D421" t="s">
         <v>712</v>
       </c>
-      <c r="E419" t="s">
-        <v>24</v>
-      </c>
-      <c r="F419" t="s">
+      <c r="E421" t="s">
+        <v>24</v>
+      </c>
+      <c r="F421" t="s">
         <v>41</v>
       </c>
-      <c r="H419" t="s">
+      <c r="H421" t="s">
         <v>713</v>
-      </c>
-    </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A420" s="4"/>
-      <c r="B420" s="4" t="s">
-        <v>712</v>
-      </c>
-      <c r="C420" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D420" s="4" t="s">
-        <v>714</v>
-      </c>
-      <c r="E420" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F420" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G420" s="4"/>
-      <c r="H420" s="4" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A421" s="4"/>
-      <c r="B421" s="4" t="s">
-        <v>716</v>
-      </c>
-      <c r="C421" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D421" s="4" t="s">
-        <v>717</v>
-      </c>
-      <c r="E421" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F421" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G421" s="4"/>
-      <c r="H421" s="4" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422" s="4"/>
       <c r="B422" s="4" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="C422" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D422" s="4" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="E422" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F422" s="4" t="s">
-        <v>47</v>
+      <c r="F422" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="G422" s="4"/>
       <c r="H422" s="4" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" s="4"/>
       <c r="B423" s="4" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="C423" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D423" s="4" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="E423" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F423" s="4" t="s">
-        <v>724</v>
+        <v>44</v>
       </c>
       <c r="G423" s="4"/>
       <c r="H423" s="4" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A424" s="4"/>
+      <c r="B424" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="C424" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D424" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="E424" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F424" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G424" s="4"/>
+      <c r="H424" s="4" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A425" s="4"/>
+      <c r="B425" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="C425" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D425" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="E425" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F425" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="G425" s="4"/>
+      <c r="H425" s="4" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A424" s="3"/>
-      <c r="B424" s="3" t="s">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A426" s="3"/>
+      <c r="B426" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C424" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D424" s="3" t="s">
+      <c r="C426" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D426" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="E424" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F424" s="3" t="s">
+      <c r="E426" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F426" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="G424" s="3"/>
-      <c r="H424" s="3" t="s">
+      <c r="G426" s="3"/>
+      <c r="H426" s="3" t="s">
         <v>727</v>
-      </c>
-    </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B425" t="s">
-        <v>288</v>
-      </c>
-      <c r="C425" t="s">
-        <v>18</v>
-      </c>
-      <c r="D425" t="s">
-        <v>288</v>
-      </c>
-      <c r="E425" t="s">
-        <v>20</v>
-      </c>
-      <c r="F425" t="s">
-        <v>33</v>
-      </c>
-      <c r="H425" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B426" t="s">
-        <v>729</v>
-      </c>
-      <c r="C426" t="s">
-        <v>18</v>
-      </c>
-      <c r="D426" t="s">
-        <v>729</v>
-      </c>
-      <c r="E426" t="s">
-        <v>24</v>
-      </c>
-      <c r="F426" t="s">
-        <v>41</v>
-      </c>
-      <c r="H426" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B427" t="s">
-        <v>731</v>
+        <v>288</v>
       </c>
       <c r="C427" t="s">
         <v>18</v>
       </c>
       <c r="D427" t="s">
-        <v>731</v>
+        <v>288</v>
       </c>
       <c r="E427" t="s">
         <v>20</v>
       </c>
       <c r="F427" t="s">
-        <v>693</v>
+        <v>33</v>
       </c>
       <c r="H427" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B428" t="s">
+        <v>729</v>
+      </c>
+      <c r="C428" t="s">
+        <v>18</v>
+      </c>
+      <c r="D428" t="s">
+        <v>729</v>
+      </c>
+      <c r="E428" t="s">
+        <v>24</v>
+      </c>
+      <c r="F428" t="s">
+        <v>41</v>
+      </c>
+      <c r="H428" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B429" t="s">
+        <v>731</v>
+      </c>
+      <c r="C429" t="s">
+        <v>18</v>
+      </c>
+      <c r="D429" t="s">
+        <v>731</v>
+      </c>
+      <c r="E429" t="s">
+        <v>20</v>
+      </c>
+      <c r="F429" t="s">
+        <v>693</v>
+      </c>
+      <c r="H429" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B430" t="s">
         <v>733</v>
       </c>
-      <c r="C428" t="s">
-        <v>18</v>
-      </c>
-      <c r="D428" t="s">
+      <c r="C430" t="s">
+        <v>18</v>
+      </c>
+      <c r="D430" t="s">
         <v>733</v>
       </c>
-      <c r="E428" t="s">
-        <v>20</v>
-      </c>
-      <c r="F428" t="s">
+      <c r="E430" t="s">
+        <v>20</v>
+      </c>
+      <c r="F430" t="s">
         <v>33</v>
       </c>
-      <c r="H428" t="s">
+      <c r="H430" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A429" s="4"/>
-      <c r="B429" s="4" t="s">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A431" s="4"/>
+      <c r="B431" s="4" t="s">
         <v>735</v>
       </c>
-      <c r="C429" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D429" s="4" t="s">
+      <c r="C431" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D431" s="4" t="s">
         <v>736</v>
       </c>
-      <c r="E429" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F429" s="5" t="s">
+      <c r="E431" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F431" s="5" t="s">
         <v>737</v>
       </c>
-      <c r="G429" s="4"/>
-      <c r="H429" s="4" t="s">
+      <c r="G431" s="4"/>
+      <c r="H431" s="4" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A430" s="3"/>
-      <c r="B430" s="3" t="s">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A432" s="3"/>
+      <c r="B432" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="C430" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D430" s="3" t="s">
+      <c r="C432" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D432" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="E430" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F430" s="3" t="s">
+      <c r="E432" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F432" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="G430" s="3"/>
-      <c r="H430" s="3" t="s">
+      <c r="G432" s="3"/>
+      <c r="H432" s="3" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B431" t="s">
+    <row r="433" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B433" t="s">
         <v>739</v>
       </c>
-      <c r="C431" t="s">
-        <v>18</v>
-      </c>
-      <c r="D431" t="s">
+      <c r="C433" t="s">
+        <v>18</v>
+      </c>
+      <c r="D433" t="s">
         <v>739</v>
       </c>
-      <c r="E431" t="s">
-        <v>20</v>
-      </c>
-      <c r="F431" t="s">
+      <c r="E433" t="s">
+        <v>20</v>
+      </c>
+      <c r="F433" t="s">
         <v>693</v>
       </c>
-      <c r="H431" t="s">
+      <c r="H433" t="s">
         <v>742</v>
       </c>
     </row>
@@ -14145,8 +14217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H173"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
